--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_low-glycemic-impact.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_low-glycemic-impact.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658334-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Low Glycemic Impact Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658342-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/REzI1RjQkNBd-PvrUIUD46iQMHQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6324102-9107688b783e425ba420371562e92bd6.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17001/marinated-pork-roast/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Marinated Pork Roast</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup Worcestershire sauce\n\n\n2 tablespoons honey\n\n\n2 tablespoons cider vinegar\n\n\n1 teaspoon lemon pepper\n\n\n½ teaspoon mustard seed\n\n\n½ teaspoon mustard powder\n\n\n½ teaspoon celery salt\n\n\n1 clove garlic, minced\n\n\n1 (4 pound) pork roast\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup Worcestershire sauce\n\n\n2 tablespoons honey\n\n\n2 tablespoons cider vinegar\n\n\n1 teaspoon lemon pepper\n\n\n½ teaspoon mustard seed\n\n\n½ teaspoon mustard powder\n\n\n½ teaspoon celery salt\n\n\n1 clove garlic, minced\n\n\n1 (4 pound) pork roast\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine Worcestershire sauce, honey, vinegar, lemon pepper, mustard seed, mustard powder, celery salt, and garlic in a large resealable plastic bag; seal and mix ingredients."},{"recipe_directions":"Place pork roast in the plastic bag, press air out of bag, and seal. Marinate for 2 hours in the refrigerator, turning the roast occasionally to help coat while marinating."},{"recipe_directions":"Meanwhile, prepare grill for indirect heat."},{"recipe_directions":"Lightly oil grill grate. Place roast on grill and discard marinade. Cover and cook until internal temperature is 145 degrees F (63 degrees C), 1 1/2 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Roast Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658349-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M6t_qo9zIbe-EcF0clAlCK-ag7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1398708-4cdd043de5304dd885064dadbbbe3ee9.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19481/frogmore-stew/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frogmore Stew</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 quarts water\n\n\n¾ cup Old Bay Seasoning TM\n\n\n2 pounds new red potatoes\n\n\n2 pounds hot smoked sausage links, cut into 2 inch pieces\n\n\n12 ears corn - husked, cleaned and quartered\n\n\n4 pounds large fresh shrimp, unpeeled"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 quarts water\n\n\n¾ cup Old Bay Seasoning TM\n\n\n2 pounds new red potatoes\n\n\n2 pounds hot smoked sausage links, cut into 2 inch pieces\n\n\n12 ears corn - husked, cleaned and quartered\n\n\n4 pounds large fresh shrimp, unpeeled'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and Old Bay seasoning to a boil in a large stockpot over high heat."},{"recipe_directions":"Add potatoes; cook for 15 minutes. Add sausage; cook for 5 more minutes. Add corn; cook for 5 more minutes. Stir in shrimp; cook until shrimp are pink, about 5 minutes. Drain immediately and serve."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"499\nCalories\n\n\n16g \nFat\n\n\n39g \nCarbs\n\n\n53g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658357-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qaYgIBlAyCGXINo1em2BcfVwvVY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/52620_Tempura-Dipping-Sauce_Buckwheat-Queen_3645136_original-1x1-1-4dabde5055a9483f95ac1078bc2ebfe6.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52620/tempura-dipping-sauce/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tempura Dipping Sauce</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n1 tablespoon dashi granules\n\n\n¼ cup mirin (Japanese sweet wine)\n\n\n2 tablespoons soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 tablespoon dashi granules\n\n\n¼ cup mirin (Japanese sweet wine)\n\n\n2 tablespoons soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a small saucepan. Stir in dashi, and cook for 2 minutes. Remove from heat, and stir in mirin and soy sauce."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"38\nCalories\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658368-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fy95_pYF9liH7ruORmjZooyRTrs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/362677-vegetarian-chickpea-sandwich-filling-Alberta-Rose-1x1-1-e131077da4934ade85613f52bdc0344a.jpg"
@@ -400,59 +729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16715/vegetarian-chickpea-sandwich-filling/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Vegetarian Chickpea Sandwich Filling</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash chickpeas in a medium bowl with a fork. Mix in celery, onion, mayonnaise, lemon juice, and dill until well combined. Season with salt and pepper."},{"recipe_directions":"You can use any raw, chopped vegetable instead of celery."},{"recipe_directions":"You can use your favorite salad dressing instead of mayonnaise."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n6g \nFat\n\n\n44g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658376-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0joob6RhpXNjypJp5hWc-FncbdY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8802898-grandmas-chicken-noodle-soup-Kellycowboy-4x3-1-69733733d0e24ade9e84d9e1fd46fdbf.jpg"
@@ -466,59 +791,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13206/grandmas-chicken-noodle-soup/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Grandma's Chicken Noodle Soup</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups wide egg noodles\n\n\n1 teaspoon vegetable oil\n\n\n12 cups chicken broth\n\n\n1 ½ tablespoons salt\n\n\n1 teaspoon poultry seasoning\n\n\n1 cup chopped celery\n\n\n1 cup chopped onion\n\n\n⅓ cup cornstarch\n\n\n¼ cup water\n\n\n3 cups diced, cooked chicken meat"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups wide egg noodles\n\n\n1 teaspoon vegetable oil\n\n\n12 cups chicken broth\n\n\n1 ½ tablespoons salt\n\n\n1 teaspoon poultry seasoning\n\n\n1 cup chopped celery\n\n\n1 cup chopped onion\n\n\n⅓ cup cornstarch\n\n\n¼ cup water\n\n\n3 cups diced, cooked chicken meat'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add egg noodles and oil, and boil until noodles are tender, about 8 minutes. Drain, rinse under cool running water, and drain again."},{"recipe_directions":"Bring broth, salt, and poultry seasoning to a boil in a Dutch oven. Stir in celery and onion; reduce the heat, cover, and simmer until vegetables have softened, about 15 minutes."},{"recipe_directions":"Mix cornstarch and water together in a small bowl until cornstarch is completely dissolved; gradually stir into soup. Stir in noodles and chicken, and cook until heated through, 2 to 3 minutes."},{"recipe_directions":"This is one of our most popular chicken noodle soup recipes of all time — learn more: I Tested Five Popular Chicken Noodle Soup Recipes and the Winner Was Pure Comfort."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"147\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658384-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/04QIqZp02yLxKliYdcYs94L9gq0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1117965-aunt-jewels-chicken-dressing-casserole-LL-4x3-1-d2a27c0e89ec4c389258868b81f0e79a.jpg"
@@ -532,59 +853,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25939/aunt-jewels-chicken-dressing-casserole/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Aunt Jewel's Chicken Dressing Casserole</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds skinless, boneless chicken breast meat\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n1 (10.5 ounce) can condensed cream of celery soup\n\n\n10 ½ fluid ounces milk\n\n\n1 (6 ounce) package seasoned cornbread stuffing mix\n\n\n1 ½ cups chicken broth"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds skinless, boneless chicken breast meat\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n1 (10.5 ounce) can condensed cream of celery soup\n\n\n10 ½ fluid ounces milk\n\n\n1 (6 ounce) package seasoned cornbread stuffing mix\n\n\n1 ½ cups chicken broth'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken in a large saucepan full of lightly salted water. Bring to a boil. Boil until chicken is cooked through (juices run clear), about 30 minutes. Remove chicken from pan, reserving broth."},{"recipe_directions":"Cut chicken into bite-sized pieces and place in the bottom of a 9x13-inch baking dish."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix together condensed soups in a medium bowl. Fill one empty soup can with milk and mix milk with soups. Pour mixture over chicken."},{"recipe_directions":"Combine stuffing and broth in a small bowl; mix together and spoon the mixture over the casserole."},{"recipe_directions":"Bake in the preheated oven for 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Healthy Chicken"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658392-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IB-d1mQpZtSFhgQN8YvX73N5BjU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/958722-fdaa5fd0205246a297d259588c24da51.jpg"
@@ -597,59 +914,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45833/ginger-glazed-mahi-mahi/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Ginger Glazed Mahi Mahi</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons honey\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons balsamic vinegar\n\n\n2 teaspoons olive oil\n\n\n1 teaspoon grated fresh ginger root\n\n\n1 clove garlic, crushed or to taste\n\n\n4 (6 ounce) mahi mahi fillets\n\n\n  salt and pepper to taste\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons honey\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons balsamic vinegar\n\n\n2 teaspoons olive oil\n\n\n1 teaspoon grated fresh ginger root\n\n\n1 clove garlic, crushed or to taste\n\n\n4 (6 ounce) mahi mahi fillets\n\n\n  salt and pepper to taste\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix honey, soy sauce, balsamic vinegar, olive oil, ginger, and garlic together in a shallow dish. Season fish fillets with salt and pepper; place them skin-sides down in the dish with marinade. Cover and refrigerate for 20 minutes."},{"recipe_directions":"Heat vegetable oil in a large skillet over medium-high heat. Remove fish fillets, reserving marinade. Fry fish for 4 to 6 minutes on each side, turning only once, until fish flakes easily with a fork. Remove fillets to a serving platter and keep warm."},{"recipe_directions":"Pour reserved marinade into the skillet; simmer over medium heat until reduced to a glaze. Spoon glaze over fish and serve."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Mahi Mahi"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n7g \nFat\n\n\n16g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658398-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8ovEeYpxfTJKAdShe3ea7uOxko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/16542-Salsa-ddmfs-4x3-041-8a68e3aa135c4d35bbaa0a01a9d3403e.jpg"
@@ -663,59 +976,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16542/salsa/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Salsa</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine tomatoes, onion, tomatillo, cilantro, garlic, lime juice, and salt in a medium-sized mixing bowl. Mix well."},{"recipe_directions":"Add 1/2 of the jalapeño pepper and taste. If you desire your salsa with more kick, add remaining 1/2 jalapeño."},{"recipe_directions":"Cover the salsa and chill until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"53\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658406-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0J119Z-ljsQqGUbOVzkfQ7ZP9BI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4558243-711aa319788d45368843f920f0fdfc73.jpg"
@@ -728,59 +1037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21154/sauerkraut-for-canning/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sauerkraut for Canning</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n21 days 12 hrs 50 mins\n\n\nTotal Time:\n21 days 15 hrs 20 mins\n\n\nServings:\n144 \n\n\nYield:\n36 pints"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"50 pounds cabbage\n\n\n1 ⅞ cups canning salt, divided"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '50 pounds cabbage\n\n\n1 ⅞ cups canning salt, divided'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove outer leaves and any undesirable portions from firm mature cabbage heads. Cut heads into quarters and remove and discard cores, Cut cabbage into thin shreds about the thickness of a dime with a sharp knife, mandolin, or food processor."},{"recipe_directions":"Transfer 5 pounds cabbage to a large bowl. Sprinkle 3 tablespoons salt over top and mix thoroughly. Let stand until slightly wilted, about 5 minutes."},{"recipe_directions":"Pack salted cabbage firmly and evenly into a large, clean pickling container. Use a wooden spoon, tapper, or your hands to press down firmly until juice comes to the surface."},{"recipe_directions":"Repeat salting and packing of cabbage in 5-pound batches as directed in Step 2 until the container is filled to within 3 to 4 inches of the top. If juice does not cover cabbage, make and add brine (see Recipe Tip)."},{"recipe_directions":"Cover cabbage with cheesecloth and tuck the edges down against the inside of the container. Place a weighted bowl on the cheesecloth to submerge cabbage. Let sit in a 70 to 75 degrees F (21 to 24 degrees C) room for 3 to 6 weeks; remove and discard scum formation daily. The presence of gas bubbles indicates fermentation is taking place."},{"recipe_directions":"When ready to can, inspect 36 pint-sized (or 18 quart-sized) jars for cracks and rings for rust, discarding any defective ones. Immerse in simmering water until needed. Wash new, unused lids and rings in warm soapy water."},{"recipe_directions":"Transfer sauerkraut and brine to a very large pot. Heat mixture until simmering and 185 to 210 degrees F (85 to 99 degrees C); do not boil."},{"recipe_directions":"Pack sauerkraut into hot, sterilized jars, filling to within 1/2 inch of the top. Run a clean knife or thin spatula around the insides of the jars to remove any air bubbles. Wipe rims with a moist paper towel to remove any residue. Top with lids and screw rings on tightly."},{"recipe_directions":"Working in batches, place a rack in the bottom of a large stockpot and fill halfway with water. Bring to a boil and lower jars 2 inches apart into the boiling water using a holder. Pour in more boiling water to cover jars by at least 1 inch. Bring to a rolling boil, cover, and process pints for 15 minutes or quarts for 20 minutes."},{"recipe_directions":"Remove the jars from the stockpot and let rest, several inches apart, for 12 to 24 hours. Press the center of each lid with a finger to ensure the lid does not move up or down. Remove the rings for storage and store in a cool, dark area."},{"recipe_directions":"Always brine foods in a food-grade, nonreactive container such as a stainless steel or enameled stockpot, a brining bag, or a food-grade plastic bucket."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of canning salt. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Canning and Preserving Recipes"},{"recipe_tags":"Pickles"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"39\nCalories\n\n\n0g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658413-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WpG1lA2TrGRYJdrg6gbdqctkf7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5136804-f48db394696347eba9287e42d497e1e7.jpg"
@@ -793,59 +1098,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73733/crab-ceviche/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Crab Ceviche</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place imitation crab into a large glass or porcelain bowl; stir in olive oil until well coated. Stir in tomatoes, serrano peppers, onion, and cilantro. Squeeze lime juice on top and mix well. Season generously with salt and pepper. Cover and refrigerate for about 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Crab Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"62\nCalories\n\n\n2g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658421-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c0LMzCiKQidl6EE_Yd4v-IGyQ1Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1128511-8fbe0b93e0e1423abc1b2e7867d4c531.jpg"
@@ -858,59 +1159,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31813/marinated-turkey-breast/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Marinated Turkey Breast</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 4 hrs 10 mins\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cloves garlic, peeled and minced\n\n\n1 tablespoon finely chopped fresh basil\n\n\n½ teaspoon ground black pepper\n\n\n2 (3 pound) boneless turkey breast halves\n\n\n6  whole cloves\n\n\n¼ cup vegetable oil\n\n\n¼ cup soy sauce\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cloves garlic, peeled and minced\n\n\n1 tablespoon finely chopped fresh basil\n\n\n½ teaspoon ground black pepper\n\n\n2 (3 pound) boneless turkey breast halves\n\n\n6  whole cloves\n\n\n¼ cup vegetable oil\n\n\n¼ cup soy sauce\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix garlic, basil, and pepper together in a small bowl; rub over turkey breasts. Insert 1 clove into each end of turkey breasts and 1 in the center."},{"recipe_directions":"Mix oil, soy sauce, lemon juice, and brown sugar in a large, shallow dish. Place turkey in the dish and turn to coat. Cover and marinate in the refrigerator at least 4 hours."},{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate."},{"recipe_directions":"Discard marinade and place turkey on the preheated grill. Close the lid and cook until turkey is no longer pink in the center and the juices run clear, about 15 minutes on each side. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Turkey"},{"recipe_tags":"Turkey Breast"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"317\nCalories\n\n\n6g \nFat\n\n\n2g \nCarbs\n\n\n60g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658429-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZHMsj8xqu_ReyfdbWRWdXdaoPpk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/6726997-grilled-portobello-mushrooms-Chef-Mo-1x1-1-83b0246a7906485c98bde4be3f0700ab.jpg"
@@ -924,59 +1221,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13913/grilled-portobello-mushrooms/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Grilled Portobello Mushrooms</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large portobello mushrooms\n\n\n¼ cup canola oil\n\n\n¼ cup balsamic vinegar\n\n\n3 tablespoons chopped onion\n\n\n4 cloves garlic, minced"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large portobello mushrooms\n\n\n¼ cup canola oil\n\n\n¼ cup balsamic vinegar\n\n\n3 tablespoons chopped onion\n\n\n4 cloves garlic, minced'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Clean mushrooms; remove stems, reserving them for another use. Place mushroom caps gill-side up in a shallow dish."},{"recipe_directions":"Combine oil, balsamic vinegar, onion, and garlic in a small bowl. Pour mixture evenly over mushroom caps; let marinate at room temperature for 1 hour."},{"recipe_directions":"Preheat the grill to medium-high heat; grease the grate."},{"recipe_directions":"Grill over the hot grill until caramelized and tender, about 5 minutes per side; serve warm."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n19g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658438-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qkpFUnKGcEvo3NheLOYjNrO8x5g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3571915-85fed625e02740e7bcb620b90f06eee6.jpg"
@@ -989,59 +1282,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7047/ezekiel-bread-i/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Ezekiel Bread</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n24 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This Ezekiel bread, made from sprouted grains and beans, is an easy and healthy recipe to make at home."},{"recipe_directions":"Ezekiel bread is a type of whole grain bread that gets its name from an ancient bread formula found in the Bible. Made from sprouted grains and beans, Ezekiel bread is chock-full of healthy vitamins and minerals."},{"recipe_directions":"These are the wholesome ingredients you'll need to make this homemade Ezekiel bread recipe:"},{"recipe_directions":"· Water: You'll need warm water to dissolve the yeast.\n· Honey and oil: Dissolve the yeast with honey and oil for subtle sweetness and moisture.\n· Yeast: Use two packages of active dry yeast for two loaves.\n· Wheat berries: Wheat berries are the whole wheat kernels with the bran and germ intact, but the husk removed.\n· Spelt flour: Spelt flour is a type of whole wheat flour made from the entire grain.\n· Barley: Barley is a chewy cereal grain with a mild taste.\n· Millet: Millet is a small, round grain in the grass family.\n· Beans: You'll need dry green lentils, dry great Northern beans, dry kidney beans, and dry pinto beans.\n· Salt: Salt enhances the overall flavor of the bread."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make your own Ezekiel bread:"},{"recipe_directions":"1. Activate the yeast with the water, honey, and oil.\n2. Stir the grains and beans together, then grind them in a flour mill.\n3. Add the flour mixture and salt to the yeast mixture. Stir to form a loose dough.\n4. Pour the dough into prepared loaf pans and let rise.\n5. Bake in the preheated oven until the loaves are golden brown."},{"recipe_directions":"No, Ezekiel bread isn't gluten-free. Even though the recipe doesn't contain traditional all-purpose flour, three of the ingredients (wheat berries, spelt flour, and barley) contain gluten."},{"recipe_directions":"Store Ezekiel bread at room temperature for up to three days. After three days, you'll need to freeze it. The best way to freeze Ezekiel bread is in individual slices so you can thaw them as-needed."},{"recipe_directions":"\"This bread has become our favorite,\" says jill stewart. \"I grind and bake it every two weeks. I keep the fresh small loaves in the freezer until we finish the previous loaf, and it is absolutely perfect. I don't just like this bread. It is the BEST bread that I have ever eaten.\""},{"recipe_directions":"\"This is a very hearty bread,\" according to Connie Duran. \"Must be treated like a sweet bread, in that it holds together better if put in a plastic wrap and then used the next day. Very filling. Pleasant texture.\""},{"recipe_directions":"\"This is a great diet meal for the money,\" says MelWad. \"It also makes a great french toast! I ran out of honey last time and substituted a small portion of molasses.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Mix water, honey, olive oil, and yeast in a large bowl. Let sit for 3 to 5 minutes."},{"recipe_directions":"Meanwhile, stir together wheat berries, spelt flour, barley, millet, lentils, great northern beans, kidney beans, and pinto beans together until well mixed. Grind in a flour mill."},{"recipe_directions":"Add fresh milled flour mixture and salt to yeast mixture; stir until well mixed, about 10 minutes. The dough will be loose."},{"recipe_directions":"Pour dough into two greased 9x5-inch loaf pans."},{"recipe_directions":"Let rise in a warm place until dough has reached the top of the pan, about 1 hour."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until loaves are golden brown, 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n5g \nFat\n\n\n40g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658447-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pAolKDoRdMZAT8SXzPaHxM51Zbc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/35304-how-to-make-pico-de-gallo-VAT-hero-4x3-67d14bca3d36432ea7762cf3d8f3936e.jpg"
@@ -1055,59 +1344,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35304/how-to-make-pico-de-gallo/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>How to Make Pico de Gallo</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pico de gallo is a fresh, tomato-based salsa that's found in Mexican cuisine. Wondering how to make delicious pico de gallo at home? You've come to the right place. Learn how to make, store, and serve the best pico de gallo of your life with this top-rated recipe."},{"recipe_directions":"Pico de gallo (a.k.a. salsa fresca) is a type of fresh salsa found in Mexican cuisine. Traditional ingredients include tomatoes, onions, serrano or jalapeno peppers, cilantro, and sometimes lime juice. Other spices and seasonings are often used. Since it contains less liquid than other salsa varieties, pico de gallo can be used in a variety of ways. It can be served with chips for dipping, used as a topping for tacos, or included as an ingredient in burritos and quesadillas."},{"recipe_directions":"Pico de gallo is sometimes called salsa bandera, or flag sauce, because it features all the colors of the Mexican flag (red tomatoes, green peppers and cilantro, and white onions)."},{"recipe_directions":"Making restaurant-worthy pico de gallo is easier than you think. You just need to follow a few simple steps. You'll find the full recipe below, but here's a brief overview of what you can expect:"},{"recipe_directions":"When it comes to pico de gallo, freshness is key. Use high-quality tomatoes that are ripe and vibrantly colored (Roma tomatoes work well). Since all the ingredients are in season during the summertime, pico de gallo makes a great seasonal dish."},{"recipe_directions":"Combine the diced tomatoes, onions, and peppers. Toss the veggies with the chopped cilantro and your seasonings."},{"recipe_directions":"Make sure to allow the pico de gallo to chill for at least 30 minutes to allow the flavors to meld."},{"recipe_directions":"Once again, fresh is best — so try to eat the pico de gallo the day it's made. If you need to keep it for longer, store it in an airtight container in the fridge for up to three days."},{"recipe_directions":"\"Beautiful, easy, and fast,\" raves Arpeggio Garden. \"We always use fresh garlic, but otherwise an excellent recipe! No need ever to buy salsa! Thanks for the lovely recipe!\""},{"recipe_directions":"\"Great recipe,\" says TAMI426. \"I used red onion and added the juice of one lime. I let it sit for about 30 minutes, before serving. It was delicious.\""},{"recipe_directions":"\"I made this for a make-your-own-taco buffet at work, and everyone loved it,\" Laura Brann. \"I agree that it's much tastier if you let the flavors mingle overnight.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Prep and gather all your ingredients."},{"recipe_directions":"Add tomato, onion, jalapeño pepper, cilantro and green onion in a medium bowl."},{"recipe_directions":"Season with garlic powder, salt, and pepper. Stir until evenly distributed."},{"recipe_directions":"Refrigerate for 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"21\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658456-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lZ5KCUDexqrs9lPYNiUZnMMvcyY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6286412-b48b52d236614492be6bdad1886b06ea.jpg"
@@ -1120,59 +1405,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31478/tasty-collard-greens/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Tasty Collard Greens</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n2 tablespoons minced garlic\n\n\n5 cups chicken stock\n\n\n1  smoked turkey drumstick\n\n\n5 bunches collard greens - rinsed, trimmed and chopped\n\n\n  salt and black pepper to taste\n\n\n1 tablespoon crushed red pepper flakes (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n2 tablespoons minced garlic\n\n\n5 cups chicken stock\n\n\n1  smoked turkey drumstick\n\n\n5 bunches collard greens - rinsed, trimmed and chopped\n\n\n  salt and black pepper to taste\n\n\n1 tablespoon crushed red pepper flakes (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large pot over medium heat. Add garlic; gently sauté until fragrant and golden brown, about 1 minute. Pour in chicken stock and add turkey leg; cover and simmer for 30 minutes."},{"recipe_directions":"Add collard greens and increase heat to medium-high. Cover and cook, stirring occasionally, until greens have cooked down, about 45 minutes."},{"recipe_directions":"Reduce heat to medium. Season with salt and pepper to taste; cover and continue to cook until greens are tender and dark green, 45 to 60 minutes."},{"recipe_directions":"Drain greens, reserving cooking liquid. Mix in red pepper flakes if desired. Use reserved cooking liquid to reheat leftovers."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of chicken stock and smoked turkey drumstick. The actual amount of chicken stock and smoked turkey consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n8g \nFat\n\n\n11g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658464-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0J7yC0eIIq0g1ci6nvaPZiMEL0Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/76469_MexicanCeviche_MFS_416-1-4x3-2f844bbd84c94f478b2ea05c1d999146.jpg"
@@ -1186,59 +1467,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76469/mexican-ceviche/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Mexican Ceviche</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound jumbo shrimp, peeled and deveined\n\n\n5 large lemons, juiced, or as needed\n\n\n2  white onions, finely chopped\n\n\n1 large tomato, seeded and chopped\n\n\n1  cucumber, peeled and finely chopped\n\n\n1 bunch radishes, finely diced\n\n\n2 cloves fresh garlic, minced\n\n\n3  fresh jalapeno peppers, seeded and minced\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n  tomato and clam juice cocktail\n\n\n  tortilla chips"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound jumbo shrimp, peeled and deveined\n\n\n5 large lemons, juiced, or as needed\n\n\n2  white onions, finely chopped\n\n\n1 large tomato, seeded and chopped\n\n\n1  cucumber, peeled and finely chopped\n\n\n1 bunch radishes, finely diced\n\n\n2 cloves fresh garlic, minced\n\n\n3  fresh jalapeno peppers, seeded and minced\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n  tomato and clam juice cocktail\n\n\n  tortilla chips'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place shrimp in a bowl. You may either coarsely chop the shrimp, or leave them whole, depending on your preference. Add lemon juice, covering shrimp completely. Cover and refrigerate for 30 minutes, or until opaque and slightly firm."},{"recipe_directions":"Add onions, tomato, cucumber, radishes, and garlic; toss to combine. Gradually add jalapeño and cilantro to desired taste (jalapeño will grow stronger while marinating). Stir in tomato and clam juice cocktail to desired consistency."},{"recipe_directions":"Stir in tomato and clam juice cocktail to desired consistency."},{"recipe_directions":"Cover and refrigerate for 1 hour. Serve chilled with tortilla chips."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"387\nCalories\n\n\n12g \nFat\n\n\n58g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658469-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vj5untPVKhk8LHykR2v_r-bZaSU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-99-05751ed2de5f45ffa5c284b166a17cc3.jpg"
@@ -1252,59 +1529,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16360/cock-a-leekie-soup/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Cock-a-Leekie Soup</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 pounds chicken thighs, bone in, skin removed\n\n\n10 cups water\n\n\n1 medium onion, chopped\n\n\n⅓ cup barley\n\n\n1 (10.5 ounce) can condensed chicken broth\n\n\n7 medium leeks, sliced\n\n\n2 stalks celery, thickly sliced\n\n\n1 tablespoon chopped fresh parsley\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 sprig fresh thyme, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 pounds chicken thighs, bone in, skin removed\n\n\n10 cups water\n\n\n1 medium onion, chopped\n\n\n⅓ cup barley\n\n\n1 (10.5 ounce) can condensed chicken broth\n\n\n7 medium leeks, sliced\n\n\n2 stalks celery, thickly sliced\n\n\n1 tablespoon chopped fresh parsley\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 sprig fresh thyme, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken into a large pot; pour in water and add onion and barley. Bring to a boil over high heat, then reduce the heat to low and simmer for 1 hour."},{"recipe_directions":"Use tongs to transfer chicken to a cutting board. Discard skin and bones; chop meat into bite-sized pieces and return to the pot."},{"recipe_directions":"Add condensed broth, leeks, celery, parsley, salt, pepper, and thyme; simmer until vegetables are tender, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n7g \nFat\n\n\n12g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658478-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MZaQVXZrR33N3m5T4A8djUoMQDs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4939830-cornmeal-mush-Deborah-Kijak-Hess-4x3-1-21ecd18d67fe45c29bb9bf1abf0ab908.jpg"
@@ -1318,59 +1591,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19583/cornmeal-mush/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Cornmeal Mush</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups water\n\n\n1 ¼ cups cornmeal\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups water\n\n\n1 ¼ cups cornmeal\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together water, cornmeal, and salt in a medium saucepan. Cook over medium heat, stirring frequently, until mixture thickens, 5 to 7 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"80\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658485-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/77QOlgY6tXJG6jS8XGkdmyPoHqE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1047x0:1049x2):format(webp)/5025905-582b644c967845bc9553ffad8c11a715.jpg"
@@ -1383,59 +1652,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12029/linguine-with-white-clam-sauce-ii/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Linguine with White Clam Sauce</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package linguine pasta\n\n\n¼ cup olive oil\n\n\n1 clove garlic, minced\n\n\n3 (8 ounce) cans minced clams, with juice\n\n\n¾ cup chopped parsley\n\n\n2 tablespoons white wine\n\n\n1 teaspoon dried basil\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package linguine pasta\n\n\n¼ cup olive oil\n\n\n1 clove garlic, minced\n\n\n3 (8 ounce) cans minced clams, with juice\n\n\n¾ cup chopped parsley\n\n\n2 tablespoons white wine\n\n\n1 teaspoon dried basil\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook linguine at a boil until tender yet firm to the bite, about 10 minutes."},{"recipe_directions":"Meanwhile, heat olive oil in a large skillet over medium heat. Add garlic; cook and stir until fragrant, about 1 minute. Stir in liquid from clams, parsley, white wine, basil, and salt; simmer for 10 minutes."},{"recipe_directions":"Stir in clams until heated through. Add cooked linguine pasta; toss to combine and serve warm."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Clams"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"545\nCalories\n\n\n15g \nFat\n\n\n57g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658493-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qB0agQE1G5WcTStmVsCpFovrJT8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/23336_FantasticBlackBeanChili_ddmfs_4x3_2150-9a545d26112c49aba786c38ef1d027d8.jpg"
@@ -1449,59 +1714,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23336/fantastic-black-bean-chili/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Fantastic Black Bean Chili</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1 pound ground turkey\n\n\n3 (15 ounce) cans black beans, undrained\n\n\n1 (14.5 ounce) can crushed tomatoes\n\n\n1 ½ tablespoons chili powder\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried basil leaves\n\n\n1 tablespoon red wine vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, diced\n\n\n2 cloves garlic, minced\n\n\n1 pound ground turkey\n\n\n3 (15 ounce) cans black beans, undrained\n\n\n1 (14.5 ounce) can crushed tomatoes\n\n\n1 ½ tablespoons chili powder\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried basil leaves\n\n\n1 tablespoon red wine vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large heavy pot over medium heat. Add onion and garlic; cook and stir until onion has softened and turned translucent, about 5 minutes."},{"recipe_directions":"Add turkey; cook and stir until browned and crumbly, 5 to 7 minutes."},{"recipe_directions":"Stir in beans, tomatoes, chili powder, oregano, basil, and vinegar. Reduce heat to low, cover, and simmer until flavors are well blended, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Turkey Chili Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"366\nCalories\n\n\n9g \nFat\n\n\n44g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658501-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Bkgnwd0ZTOB6WCDD6JwHB-LjIOk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6993403-be81cbe376864af1a656d1b71b2ff161.jpg"
@@ -1514,59 +1775,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21145/homemade-stewed-tomatoes/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Homemade Stewed Tomatoes</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  ripe tomatoes\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  ripe tomatoes\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Fill a large bowl with ice water and set it aside."},{"recipe_directions":"Cut a shallow X on the bottom of each tomato. This will make peeling much easier. Place tomatoes in boiling water until the skin begins to peel back, about 30 seconds to 1 minute."},{"recipe_directions":"Transfer tomatoes into the bowl of ice water; set aside for 5 minutes. Remove tomatoes from water; peel off the skin with your hands and slice into quarters."},{"recipe_directions":"Transfer tomatoes into a large saucepan over low heat; stir in salt. Simmer, stirring occasionally to prevent burning, until slightly thickened, about 20 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"14\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658509-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6fpUa14L9Tg31SAuDmvbfIraRTg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/12971-navy-bean-soup-i-ddmfs-3X4-0420-20f4f50a8c094bad8cc36a5e434d44f8.jpg"
@@ -1580,59 +1837,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12971/navy-bean-soup-i/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Navy Bean Soup</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 4 hrs 10 mins\n\n\nTotal Time:\n 4 hrs 25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n1 (16 ounce) package dried navy beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n½ pound chopped ham\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 clove garlic, minced\n\n\n1 cube chicken bouillon\n\n\n1 tablespoon dried parsley\n\n\n2 teaspoons garlic powder\n\n\n1  bay leaf\n\n\n3 cups water\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n1 (16 ounce) package dried navy beans\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n½ pound chopped ham\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 clove garlic, minced\n\n\n1 cube chicken bouillon\n\n\n1 tablespoon dried parsley\n\n\n2 teaspoons garlic powder\n\n\n1  bay leaf\n\n\n3 cups water\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine water, beans, tomatoes, ham, onion, celery, Worcestershire sauce, minced garlic, bouillon, parsley, garlic powder, and bay leaf in a stock pot; bring to a boil. Reduce heat, cover, and simmer for two hours."},{"recipe_directions":"Add 3 cups of water; stir in salt and pepper. Simmer for an additional two hours. Discard bay leaf before serving."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n3g \nFat\n\n\n36g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658516-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5LxvgHF9tu9vHRpykejEXifqIvg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Eastern-North-Carolina-BBQ-Sauce-4x4-1-2000-ee2b70bc69ce42d9b71bd811c21f845f.jpg"
@@ -1646,59 +1899,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58486/eastern-north-carolina-bbq-sauce/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Eastern North Carolina BBQ Sauce</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n1 day\n\n\nTotal Time:\n1 day 5 mins\n\n\nServings:\n32 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup white vinegar\n\n\n1 cup cider vinegar\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon cayenne pepper\n\n\n1 tablespoon hot pepper sauce (e.g. Tabasco™), or to taste\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white vinegar\n\n\n1 cup cider vinegar\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon cayenne pepper\n\n\n1 tablespoon hot pepper sauce (e.g. Tabasco™), or to taste\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine white vinegar, cider vinegar, brown sugar, cayenne pepper, hot pepper sauce, salt, and pepper in a jar or bottle with a tight-fitting lid; shake well."},{"recipe_directions":"Refrigerate sauce, shaking occasionally, until flavors blend, 1 to 2 days. Store in the refrigerator for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"BBQ Sauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"4\nCalories\n\n\n1g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658527-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/B07KB7y9x89aGnSQJx0cpOdacBQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/19766_SixCanChickenTortillaSoup_ddmfs_4x3_2017-3a64f8078b1542d39c1e1a1a7c032797.jpg"
@@ -1712,59 +1961,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19766/six-can-chicken-tortilla-soup/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Six Can Chicken Tortilla Soup</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (14.5 ounce) cans chicken broth\n\n\n1 (15 ounce) can whole kernel corn, drained\n\n\n1 (15 ounce) can black beans\n\n\n1 (10 ounce) can chunk chicken\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers, drained\n\n\n  crushed tortilla chips (Optional)\n\n\n  shredded Cheddar cheese (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (14.5 ounce) cans chicken broth\n\n\n1 (15 ounce) can whole kernel corn, drained\n\n\n1 (15 ounce) can black beans\n\n\n1 (10 ounce) can chunk chicken\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers, drained\n\n\n  crushed tortilla chips (Optional)\n\n\n  shredded Cheddar cheese (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Pour chicken broth, corn, black beans, chunk chicken, and diced tomatoes with green chilies into a large saucepan or stockpot over medium heat."},{"recipe_directions":"Simmer, stirring occasionally, until chicken is heated through, about 15 minutes."},{"recipe_directions":"Serve hot, topped with tortilla chips and grated cheese."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Tortilla Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"214\nCalories\n\n\n5g \nFat\n\n\n27g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658537-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t6J8VfWgGntV6J-mDOvyQmJbptY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13009pasta-fagiolimyhotsouthernmess4x3-78c598e1a27a4123a2b9a6f73c8f4a20.jpg"
@@ -1778,59 +2023,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13009/pasta-fagioli/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Pasta e Fagioli (Pasta and Beans)</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n2 stalks celery, chopped\n\n\n3 cloves garlic, minced\n\n\n2 teaspoons dried parsley\n\n\n1 teaspoon Italian seasoning\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 (14.5 ounce) can chicken broth\n\n\n2 medium tomatoes, peeled and chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup ditalini or other small pasta\n\n\n1 (15 ounce) can cannellini beans, with liquid"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n2 stalks celery, chopped\n\n\n3 cloves garlic, minced\n\n\n2 teaspoons dried parsley\n\n\n1 teaspoon Italian seasoning\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 (14.5 ounce) can chicken broth\n\n\n2 medium tomatoes, peeled and chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup ditalini or other small pasta\n\n\n1 (15 ounce) can cannellini beans, with liquid'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This restaurant-worthy pasta fagioli recipe is surprisingly easy (and cheap) to make at home."},{"recipe_directions":"Pasta fagioli (or pasta e fagioli), which means \"pasta and beans,\" is a traditional Italian soup. It consists of small noodles (such as ditalini or macaroni) and cannellini beans in a seasoned tomato broth."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you'll need to make pasta e fagioli at home:"},{"recipe_directions":"· Oil: This pasta fagioli recipe starts with cooking an onion in olive oil.\n· Vegetables: You'll need an onion, celery, and a can of cannellini beans.\n· Seasonings and herbs: The flavorful soup is seasoned with fresh garlic, parsley, Italian seasoning, crushed red pepper flakes, and salt.\n· Broth: Use store-bought or homemade chicken broth.\n· Tomatoes: You'll need fresh chopped tomatoes and a can of tomato sauce.\n· Pasta: Make this traditional pasta fagioli with ditalini noodles (or any noodle you like)."},{"recipe_directions":"\"This entire recipe is cheaper than one bowl at Olive Garden,\" culinary producer Nicole McLaughlin (a.k.a. NicoleMcMom) says of this pasta fagioli recipe. Here are a few of her best tips and tricks for making a perfect pot of Italian soup every time:"},{"recipe_directions":"· Though the recipe calls for one can of chicken broth, Nicole uses more because she prefers her pasta fagioli a little more soupy.\n· Many pasta fagioli recipes call for Italian sausage. You can add the meat if you like, but this top-rated recipe is pretty hearty as-is.\n· To serve, Nicole likes to ladle the soup into bowls and top with freshly grated Parmesan, cracked black pepper, and fresh parsley."},{"recipe_directions":"Since this is a hearty pasta soup, there's really no need to pair pasta fagioli with any side dishes. However, a complementary side salad or a slice of crusty garlic bread will take this impressive dish over the top."},{"recipe_directions":"Store your (completely cooled) leftover pasta e fagioli in an airtight container in the fridge for up to five days. We don't recommend freezing this soup, as the pasta will likely become unpleasantly mushy during the thawing process."},{"recipe_directions":"\"Easy recipe and so very delicious,\" says jonna. \"I doubled the recipe and there was hardly a scrap left. I substituted a can of diced tomatoes for the fresh tomatoes.\""},{"recipe_directions":"\"This is the best pasta fagioli that I have ever tasted and I was raised on this stuff,\" raves calead910. \"What I love most is that it is affordable, easy, and delicious.\""},{"recipe_directions":"\"Great recipe, my family really enjoyed the soup,\" according to Charles Pickett. \"I added Parmesan and smoked Gouda cheese to mine and it was absolutely amazing.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Heat olive oil in a large saucepan over medium heat. Add onion, celery, garlic, parsley, Italian seasoning, pepper flakes, and salt; cook and stir until onion is translucent, about 5 minutes. Stir in chicken broth, tomato sauce, and tomatoes. Reduce the heat to low and simmer for 15 to 20 minutes."},{"recipe_directions":"Add pasta and cook until tender, about 10 minutes."},{"recipe_directions":"Stir in undrained beans and cook until heated through, 3 to 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n4g \nFat\n\n\n37g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658545-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p3Tk1BimtV0HELxsuXmktg1795c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/49552_Quinoaandblackbeans_ddmfs_4x3_2745-46315412dc4f42fab1296ebee4765507.jpg"
@@ -1844,59 +2085,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49552/quinoa-and-black-beans/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Quinoa and Black Beans</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat oil in a large saucepan over medium heat. Add onion and garlic; cook and stir until lightly browned, about 10 minutes."},{"recipe_directions":"Mix quinoa into onion mixture and cover with vegetable broth; season with cumin, cayenne pepper, salt, and pepper."},{"recipe_directions":"Bring to a boil; cover, reduce heat, and simmer until quinoa is tender and broth is absorbed, about 20 minutes."},{"recipe_directions":"Stir in frozen corn and continue to simmer until heated through, about 5 minutes. Mix in black beans and cilantro."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"153\nCalories\n\n\n2g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658551-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ggMlOA9A83L1kGNs_oynphx0i84=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1154957-c414dc0fc15c46ff82d98a90ad19818d.jpg"
@@ -1909,59 +2146,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15454/easy-pizza-sauce-ii/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Easy Pizza Sauce from Tomato Sauce</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) can tomato sauce\n\n\n½ teaspoon minced garlic\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) can tomato sauce\n\n\n½ teaspoon minced garlic\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix tomato sauce, garlic, oregano, and basil in a bowl until well combined. Spread mixture over pizza crusts as desired."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"Pizza Sauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"8\nCalories\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658558-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/u5VQOlMbsMG5pT-4240B29YNmdY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1034511-eec62042795b414291c68711c9939a5b.jpg"
@@ -1974,59 +2207,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52491/sofrito/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Sofrito</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n80 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ají dulce peppers, tops removed\n\n\n4  onions, cut into large chunks\n\n\n3 medium tomatoes, chopped\n\n\n2  green bell peppers, seeded and chopped\n\n\n1  red bell peppers, seeded and chopped\n\n\n3 medium heads garlic, peeled\n\n\n25  cilantro stems (with leaves)\n\n\n25  recao stems (with leaves)\n\n\n1 tablespoon salt\n\n\n1 tablespoon black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ají dulce peppers, tops removed\n\n\n4  onions, cut into large chunks\n\n\n3 medium tomatoes, chopped\n\n\n2  green bell peppers, seeded and chopped\n\n\n1  red bell peppers, seeded and chopped\n\n\n3 medium heads garlic, peeled\n\n\n25  cilantro stems (with leaves)\n\n\n25  recao stems (with leaves)\n\n\n1 tablespoon salt\n\n\n1 tablespoon black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine ají dulce peppers, onions, tomatoes, green peppers, red peppers, and garlic in a food processor; pulse a few times. Add cilantro stems, recao stems, salt, and pepper. Process until a semi-chunky salsa (not watery) consistency is reached."},{"recipe_directions":"Store in a resealable plastic freezer bag. Use as needed or freeze in portions."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"10\nCalories\n\n\n0g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658564-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KjzBiyp5HdIyvUrDn6Invc1XJU8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/86516-steak-sauce-ddmfs-1X1-1313-1-9f53cd5aee07445ea6db29920dca9f4c.jpg"
@@ -2040,59 +2269,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86516/steak-sauce/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Steak Sauce</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups ketchup\n\n\n2 tablespoons prepared yellow mustard\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 ½ tablespoons apple cider vinegar\n\n\n4 drops hot pepper sauce (e.g. Tabasco™)\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups ketchup\n\n\n2 tablespoons prepared yellow mustard\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 ½ tablespoons apple cider vinegar\n\n\n4 drops hot pepper sauce (e.g. Tabasco™)\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix together ketchup, mustard, Worcestershire sauce, vinegar, salt, pepper, and hot pepper sauce in a medium bowl."},{"recipe_directions":"Transfer to a jar and refrigerate until needed."},{"recipe_directions":"I use Delmonte Ketchup because I find Heinz to be a bit sweeter."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"29\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658571-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LfwvxkU65ujf5eLFExlFJZH3ty8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/153437-e01b2ffd5b7647a6abbc6bc6812631cb.jpg"
@@ -2105,59 +2330,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/40061/lemon-orange-orange-roughy/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Lemon-Orange Orange Roughy</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n4 (4 ounce) fillets orange roughy\n\n\n1  orange, juiced\n\n\n1  lemon, juiced\n\n\n½ teaspoon lemon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n4 (4 ounce) fillets orange roughy\n\n\n1  orange, juiced\n\n\n1  lemon, juiced\n\n\n½ teaspoon lemon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat."},{"recipe_directions":"Place fillets into hot oil. Drizzle with orange juice and lemon juice, then sprinkle fillets with lemon pepper. Cook until fish flakes easily with a fork, 2 to 3 minutes per side. An instant-read thermometer inserted into the center should read at least 145 degrees F (63 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658577-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TOOCRLDGlzc5YgbfMzsgSAr1A5k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/10192-1c5e032ffc4a4db79af0b9df72e4b712.jpg"
@@ -2170,59 +2391,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14193/orange-vinaigrette/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Orange Vinaigrette</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup orange juice\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon Dijon-style prepared mustard\n\n\n2 teaspoons honey\n\n\n⅛ teaspoon cracked black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup orange juice\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon Dijon-style prepared mustard\n\n\n2 teaspoons honey\n\n\n⅛ teaspoon cracked black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine orange juice, vinegar, mustard, honey, and pepper in a small jar with a lid. Cover and vigorously shake until combined. Store in the refrigerator for up to 1 week. Shake well before serving."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Salad Dressing Recipes"},{"recipe_tags":"Vinaigrette Dressing Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n7g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658583-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dKSSl6Us4iCVo4nYiWyb4v9yIsA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/19125-chicken-and-red-wine-sauce-ddmfs-4x3-22-5d8830851d3b4c7fa98cf13041749b54.jpg"
@@ -2236,59 +2453,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19125/chicken-and-red-wine-sauce/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Chicken and Red Wine Sauce</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n3 pounds skinless, boneless chicken breast halves\n\n\n1 tablespoon paprika\n\n\n1 cup brown sugar\n\n\n1 cup red wine\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n3 pounds skinless, boneless chicken breast halves\n\n\n1 tablespoon paprika\n\n\n1 cup brown sugar\n\n\n1 cup red wine\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Cook garlic in oil until tender."},{"recipe_directions":"Place chicken in the skillet, and cook for about 10 minutes on each side, until no longer pink and juices run clear. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Drain oil from the skillet. Sprinkle chicken with paprika and brown sugar."},{"recipe_directions":"Pour red wine around chicken. Cover and simmer, 15 to 20 minutes; lightly baste the chicken with wine sauce while cooking. Season with salt and pepper."},{"recipe_directions":"You can also use one whole chicken, cut up, for this dish, or 3 pounds of any chicken pieces you like."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Skillet Chicken"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"214\nCalories\n\n\n4g \nFat\n\n\n19g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658595-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3ygOl7cBKhUDwqKZ1YiqbjvBqzQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/48032-mango-salsa-DDMFS-4x3-9a85c88aa4784139bfed9c7119d6b278.jpg"
@@ -2302,59 +2515,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48032/mango-salsa/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Mango Salsa</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  mango - peeled, seeded, and chopped\n\n\n¼ cup finely chopped red bell pepper\n\n\n1  green onion, chopped\n\n\n1 fresh jalapeño chile pepper, finely chopped\n\n\n2 tablespoons chopped cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  mango - peeled, seeded, and chopped\n\n\n¼ cup finely chopped red bell pepper\n\n\n1  green onion, chopped\n\n\n1 fresh jalapeño chile pepper, finely chopped\n\n\n2 tablespoons chopped cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This fresh and fruity mango salsa recipe will add a pop of color and flavor to any plate."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make this fresh mango salsa recipe:"},{"recipe_directions":"Mix all the ingredients, then let sit for about half an hour to allow the flavors to meld. That’s it! You’ll find the full, step-by-step recipe with detailed instructions and photos below."},{"recipe_directions":"Pair this easy corn salsa with tortilla chips (store-bought or homemade) or use it as a sweet and savory topping for fish tacos or burrito bowls."},{"recipe_directions":"Yes! In fact, since the flavors meld over time, this mango salsa is actually better if you make it the day before you plan to serve it. However, it’s still delicious if you make the day of – just make sure you let it sit for about half an hour before serving."},{"recipe_directions":"Store your leftover mango salsa in a shallow, airtight container in the refrigerator for up to one week."},{"recipe_directions":"“So fresh and delicious,” according to Gennae Heer. “I added red onion instead of green onion, cherry tomatoes, and avocado. I will definitely make this again!”"},{"recipe_directions":"“This salsa is absolutely delicious,” raves erika-w. “I served it as a side dish to crab cakes and it was a perfect complement.”"},{"recipe_directions":"“This salsa was so quick and easy to make,” says Rita. “We used it over our grilled salmon and our guests loved it! We also served it with tortilla chips and it was a hit!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Place mango, red bell pepper, green onion, jalapeño, cilantro, lime juice, and lemon juice in a medium bowl."},{"recipe_directions":"Mix ingredients well to combine. Cover and let sit at least 30 minutes before serving."},{"recipe_directions":"Serve with chips."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Mango Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"21\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658601-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fsV707PkyNjbasbWxCOAnshI3_Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/25150-pork-chops-for-the-slow-cooker-ddmfs-4x3-1aaf5628ecae44e9896458fb7266a299.jpg"
@@ -2368,59 +2577,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25150/pork-chops-for-the-slow-cooker/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Pork Chops for the Slow Cooker</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  boneless pork chops\n\n\n½ cup soy sauce\n\n\n¼ cup ketchup\n\n\n¼ cup brown sugar\n\n\n2 cloves garlic, crushed\n\n\n1 teaspoon ground ginger\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  boneless pork chops\n\n\n½ cup soy sauce\n\n\n¼ cup ketchup\n\n\n¼ cup brown sugar\n\n\n2 cloves garlic, crushed\n\n\n1 teaspoon ground ginger\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place pork chops in a slow cooker."},{"recipe_directions":"Combine soy sauce, ketchup, brown sugar, garlic, and ginger, and pour over pork chops."},{"recipe_directions":"Cover and cook on Low for 6 hours."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Chop Recipes"},{"recipe_tags":"Boneless"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"146\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658607-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yBvICqGnlnrIZJOggcBdkn68XB8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/804518-57ccab4fc28f4dd28a3c2e1298232f11.jpg"
@@ -2434,59 +2639,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14021/grandmas-slow-cooker-vegetarian-chili/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Grandma's Slow Cooker Vegetarian Chili</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (19 ounce) can black bean soup\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can garbanzo beans, rinsed and drained\n\n\n1 (16 ounce) can vegetarian baked beans\n\n\n1 (14.5 ounce) can chopped tomatoes in puree\n\n\n1 (15 ounce) can whole kernel corn, drained\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2 stalks celery, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 tablespoon chili powder, or to taste\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried basil"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (19 ounce) can black bean soup\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can garbanzo beans, rinsed and drained\n\n\n1 (16 ounce) can vegetarian baked beans\n\n\n1 (14.5 ounce) can chopped tomatoes in puree\n\n\n1 (15 ounce) can whole kernel corn, drained\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2 stalks celery, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 tablespoon chili powder, or to taste\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried basil'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine black bean soup, kidney beans, garbanzo beans, baked beans, tomatoes, corn, onion, bell pepper, and celery. Season with garlic, chili powder, parsley, oregano, and basil."},{"recipe_directions":"Cook on High for at least 2 hours."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n2g \nFat\n\n\n53g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658615-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uix3Gg5JyOC_5zxqCSrrILGYHxU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/58389-slow-cooker-homemade-beans-ddmfs-1x1-5559-ccd459db9f244f4e8fa2746285b30c78.jpg"
@@ -2500,59 +2701,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58389/slow-cooker-homemade-beans/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Slow Cooker Homemade Beans</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry navy beans, soaked overnight or boiled for one hour\n\n\n6 slices thick cut bacon, cut into 1 inch pieces\n\n\n1 large onion, chopped\n\n\n1 ½ cups ketchup\n\n\n1 ½ cups water\n\n\n1 cup brown sugar\n\n\n¼ cup molasses\n\n\n1 tablespoon dry mustard\n\n\n1 tablespoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry navy beans, soaked overnight or boiled for one hour\n\n\n6 slices thick cut bacon, cut into 1 inch pieces\n\n\n1 large onion, chopped\n\n\n1 ½ cups ketchup\n\n\n1 ½ cups water\n\n\n1 cup brown sugar\n\n\n¼ cup molasses\n\n\n1 tablespoon dry mustard\n\n\n1 tablespoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Drain soaking liquid from beans; place them in a slow cooker."},{"recipe_directions":"Stir bacon, onion, ketchup, water, brown sugar, molasses, mustard, and salt into beans until well mixed."},{"recipe_directions":"Cover and cook on Low for 8 to 10 hours; stir occasionally if possible."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"296\nCalories\n\n\n3g \nFat\n\n\n57g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658624-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Oc_JcAebh3eSVA4JleZ1gTDfTOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/23724-PanFriedGreenBeans-MFS-4x3-0216-ce2c60114fdc4ba98a19c31bba213e67.jpg"
@@ -2566,59 +2763,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23724/pan-fried-green-beans/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Pan Fried Green Beans</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Combine green beans, garlic powder, onion powder, salt, and pepper in a stainless steel pot over medium-high heat. Cook, covered, until beans begin to sweat. Remove the lid and stir occasionally until beans are tender."},{"recipe_directions":"When beans and spices begin to char on the bottom of the pan, stir in olive oil and turn off heat. Cover and let stand a few minutes."},{"recipe_directions":"Scrape the bottom of the pan to incorporate charred spices. Beans should have a dark, caramel color, but not black."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n8g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658631-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hXMq0l773Bg4BSrJXhTWw_Xyo8c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/21655-simple-baked-beans-DDMFS-4x3-842c820a94234717af51523f3dae0db9.jpg"
@@ -2632,59 +2825,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21655/simple-baked-beans/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Easy Baked Beans</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 (16 ounce) cans baked beans with pork\n\n\n¼ cup molasses\n\n\n¼ cup chopped onions\n\n\n4 tablespoons brown sugar\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon prepared mustard\n\n\n2 slices bacon, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 (16 ounce) cans baked beans with pork\n\n\n¼ cup molasses\n\n\n¼ cup chopped onions\n\n\n4 tablespoons brown sugar\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon prepared mustard\n\n\n2 slices bacon, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a casserole dish with cooking spray."},{"recipe_directions":"Mix together baked beans with pork, molasses, onions, brown sugar, ketchup, and mustard together in a large bowl."},{"recipe_directions":"Transfer mixture to the prepared dish and top with chopped bacon."},{"recipe_directions":"Cover and bake in the preheated oven until thickened, about 3 hours."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n4g \nFat\n\n\n32g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658637-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dmzGmnngDlQ4PlqkTHHz6l_JsB4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/11691-tomato-and-garlic-pasta-ddmfs-step-1x1-1-167094e074a14ff8869a3e38efbcc96a.jpg"
@@ -2698,59 +2887,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/11691/tomato-and-garlic-pasta/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Tomato and Garlic Pasta</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds tomatoes\n\n\n1 (8 ounce) package angel hair pasta\n\n\n1 tablespoon olive oil, or as needed\n\n\n4 cloves crushed garlic\n\n\n1 tablespoon tomato paste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n1 tablespoon chopped fresh basil\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds tomatoes\n\n\n1 (8 ounce) package angel hair pasta\n\n\n1 tablespoon olive oil, or as needed\n\n\n4 cloves crushed garlic\n\n\n1 tablespoon tomato paste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n1 tablespoon chopped fresh basil\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomatoes in a large pot and cover with cold water. Bring just to a boil. Pour off water, and cover again with cold water. Peel the skin off tomatoes and cut into small pieces."},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook angel hair pasta in the boiling water, stirring occasionally, until tender yet firm to the bite, 4 to 5 minutes."},{"recipe_directions":"Meanwhile, heat olive oil in a large skillet or pan, making sure there is enough to cover the bottom of the pan, and sauté garlic until opaque but not browned. Stir in tomato paste. Immediately stir in the tomatoes, salt, and pepper. Reduce heat, and simmer until pasta is ready, adding basil at the end."},{"recipe_directions":"Drain pasta, do not rinse in cold water. Toss with a bit of olive oil, then mix into the sauce."},{"recipe_directions":"Reduce heat as low as possible. Keep warm, uncovered, for about 10 minutes when it is ready to serve. Garnish generously with fresh Parmesan cheese."},{"recipe_directions":"There are many variations to try for this pasta. A few favorite examples: sauté fresh quartered mushrooms with the garlic, or add shoestring zucchini along with the tomato."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n7g \nFat\n\n\n42g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658646-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4p_MGPvzB2h6frN66ckLsbCOHzY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/418791-0464c5e5baa444138a17f68f6eaf25da.jpg"
@@ -2763,59 +2948,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23915/beef-tips-and-noodles/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Beef Tips and Noodles</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10.5 ounce) can condensed cream of mushroom soup\n\n\n1 (1.25 ounce) package beef with onion soup mix\n\n\n1 (4.5 ounce) can mushrooms, drained\n\n\n1 cup water\n\n\n1 pound sirloin tips, cubed\n\n\n1 (16 ounce) package wide egg noodles"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10.5 ounce) can condensed cream of mushroom soup\n\n\n1 (1.25 ounce) package beef with onion soup mix\n\n\n1 (4.5 ounce) can mushrooms, drained\n\n\n1 cup water\n\n\n1 pound sirloin tips, cubed\n\n\n1 (16 ounce) package wide egg noodles'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Combine condensed soup, soup mix, mushrooms, and water in a 13x9-inch casserole dish. Mix thoroughly and add beef tips. Turn to coat well."},{"recipe_directions":"Bake in the preheated oven for 1 hour."},{"recipe_directions":"While beef tips are cooking, bring a large pot of lightly salted water to a boil. Add noodles and cook for 8 to 10 minutes or until al dente; drain."},{"recipe_directions":"Serve beef tips and sauce over noodles."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Pasta and Noodles"},{"recipe_tags":"Noodle Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"314\nCalories\n\n\n9g \nFat\n\n\n41g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658653-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9QrswK4OxJ7dTNW_uKR5Eeu4SnU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/Cream-of-Chicken-Breasts-1x1-1-b4d7d5c67741471ab0064b3184291ddb.jpg"
@@ -2829,59 +3010,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8858/cream-of-chicken-breasts/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Cream of Chicken Breasts</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  skinless, boneless chicken breast halves\n\n\n1 pinch poultry seasoning\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n10 ½ ounces milk"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  skinless, boneless chicken breast halves\n\n\n1 pinch poultry seasoning\n\n\n1 (10.5 ounce) can condensed cream of chicken soup\n\n\n10 ½ ounces milk'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place chicken in a 9x13-inch baking dish; season with poultry seasoning."},{"recipe_directions":"Mix together condensed soup and milk in a bowl. Pour soup mixture evenly over chicken."},{"recipe_directions":"Bake in the preheated oven until chicken is no longer pink in the center and juices run clear, about 1 1/2 hours. An instant-read thermometer inserted in the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"237\nCalories\n\n\n7g \nFat\n\n\n9g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658660-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qBMTXsmOJFX0liDIewxNZ4FBw6g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/744818-27cfa216e7444c8eb9b44a8f0534617e.jpg"
@@ -2894,59 +3071,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17319/exquisite-pizza-sauce/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Exquisite Pizza Sauce</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (6 ounce) can tomato paste\n\n\n6 fluid ounces warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons grated Parmesan cheese\n\n\n2 tablespoons honey\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon anchovy paste\n\n\n¾ teaspoon onion powder\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried marjoram\n\n\n¼ teaspoon dried basil\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon cayenne pepper\n\n\n⅛ teaspoon dried red pepper flakes\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (6 ounce) can tomato paste\n\n\n6 fluid ounces warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons grated Parmesan cheese\n\n\n2 tablespoons honey\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon anchovy paste\n\n\n¾ teaspoon onion powder\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried marjoram\n\n\n¼ teaspoon dried basil\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon cayenne pepper\n\n\n⅛ teaspoon dried red pepper flakes\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomato paste, water, Parmesan cheese, honey, garlic, anchovy paste, onion powder, oregano, marjoram, basil, black pepper, cayenne pepper, red pepper flakes, and salt into a medium bowl; mix until well blended, breaking up any clumps of cheese."},{"recipe_directions":"Set sauce aside for 30 minutes to allow the flavors to blend; spread over pizza dough and prepare pizza as desired."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"Pizza Sauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n1g \nFat\n\n\n18g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658666-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CTiwVikKGLS0l_VQFvP2xv-xbyc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5256168-dc352e6a1e234e7bb2e391f02f11ffb1.jpg"
@@ -2959,59 +3132,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13199/wonton-soup/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Wonton Soup</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers"},{"recipe_ingredients":"3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers'}, {'recipe_ingredients': '3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the wontons: Mix pork, shrimp, rice wine, soy sauce, brown sugar, green onions, and ginger together in a large bowl until well combined. Let stand for 25 to 30 minutes."},{"recipe_directions":"Spoon about 1 teaspoon filling onto the center of a wonton wrapper. Moisten all four wrapper edges with water and fold over filling to make a triangle; press the edges firmly to seal. Bring left and right corners together above filling; overlap the tips of these corners, moisten with water, and press together to seal. Repeat until all wrappers have been filled and sealed."},{"recipe_directions":"Make the soup: Bring chicken stock to a rolling boil in a pot. Gently drop in wontons and cook for 5 minutes."},{"recipe_directions":"Ladle into bowls and garnish with green onions."},{"recipe_directions":"Heat 2 to 3 cups oil in a wok until hot. Deep-fry wontons in batches in hot oil until golden, 2 to 3 minutes per side. Drain on a paper towel-lined plate. Serve with duck sauce (plum sauce) or any dipping sauce."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n6g \nFat\n\n\n21g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658672-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JivSpMVgsq87YLbBSLCxlztLeys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1978336-easy-chinese-corn-soup-Ariel-Burn-4x3-1-0bc8b4a0e67f47d0a2ded78323250904.jpg"
@@ -3025,59 +3194,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/29704/easy-chinese-corn-soup/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Easy Chinese Corn Soup</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can cream style corn\n\n\n1 (14.5 ounce) can low-sodium chicken broth\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water\n\n\n1 large egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can cream style corn\n\n\n1 (14.5 ounce) can low-sodium chicken broth\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water\n\n\n1 large egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine corn and chicken broth in a saucepan. Bring to a boil over medium-high heat."},{"recipe_directions":"Mix together cornstarch and water in a small bowl or cup; pour into the boiling corn soup, and continue cooking for about 2 minutes, or until thickened."},{"recipe_directions":"Gradually add beaten egg while stirring the soup. Remove from heat and serve."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n2g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658679-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eV1C-Xj6fJCvLp9V0xTfFS_Y97Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/742989-ad23fc3b74634303bba7e8cc46d341df.jpg"
@@ -3090,59 +3255,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45291/smoked-fish-dip/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Smoked Fish Dip</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups flaked smoked whitefish\n\n\n4 tablespoons fat-free sour cream\n\n\n2 tablespoons fat-free mayonnaise\n\n\n4 drops hot pepper sauce, or to taste\n\n\n3 drops Worcestershire sauce, or to taste\n\n\n3 drops liquid smoke flavoring (Optional)\n\n\n1 pinch seafood seasoning, such as Old Bay\n\n\n  cracked black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups flaked smoked whitefish\n\n\n4 tablespoons fat-free sour cream\n\n\n2 tablespoons fat-free mayonnaise\n\n\n4 drops hot pepper sauce, or to taste\n\n\n3 drops Worcestershire sauce, or to taste\n\n\n3 drops liquid smoke flavoring (Optional)\n\n\n1 pinch seafood seasoning, such as Old Bay\n\n\n  cracked black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place whitefish, sour cream, and mayonnaise in the bowl of a food processor; season with hot pepper sauce, Worcestershire sauce, liquid smoke, seafood seasoning, and cracked black pepper. Blend until combined with a spread-like consistency."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"25\nCalories\n\n\n0g \nFat\n\n\n1g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658687-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vkdUVICA3vvPn6t8tSm3vBHUj7Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/35965-grandma-omas-pickled-okra-ddmfs-4x3-3135-f0173f3305034d949506308b69089963.jpg"
@@ -3156,59 +3317,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35965/grandma-omas-pickled-okra/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Grandma Oma's Pickled Okra</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 12 hrs\n\n\nTotal Time:\n 12 hrs 35 mins\n\n\nServings:\n24 \n\n\nYield:\n3 pints"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds fresh okra\n\n\n3  dried red chile peppers\n\n\n3 teaspoons dried dill\n\n\n2 cups water\n\n\n1 cup vinegar\n\n\n2 tablespoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds fresh okra\n\n\n3  dried red chile peppers\n\n\n3 teaspoons dried dill\n\n\n2 cups water\n\n\n1 cup vinegar\n\n\n2 tablespoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Inspect three pint-sized jars for cracks and rings for rust, discarding any defective ones. Immerse in simmering water until brine is ready. Wash new, unused lids and rings in warm soapy water."},{"recipe_directions":"Bring water, vinegar, and salt to a rolling boil in a small saucepan."},{"recipe_directions":"Divide okra evenly between the hot, sterlized jars. Place a dried chile and a teaspoon of dill into each jar. Pour hot brine over okra, then run a clean knife or thin spatula around the insides of the jars to remove any air bubbles. Wipe the rims with a moist paper towel to remove any residue. Top with lids and screw rings on tightly."},{"recipe_directions":"Place a rack in the bottom of a large stockpot and fill halfway with water. Bring to a boil and lower jars 2 inches apart into the boiling water using a holder. Pour in more boiling water to cover jars by at least 1 inch. Bring to a rolling boil, cover, and process for 10 minutes."},{"recipe_directions":"Remove the jars from the stockpot and let rest, several inches apart, for 12 to 24 hours. Press the center of each lid with a finger to ensure the lid does not move up or down. Remove the rings for storage and store in a cool, dark area."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Canning and Preserving Recipes"},{"recipe_tags":"Pickles"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"10\nCalories\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658697-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8kA0Wh_MPIVkpl-UvV84ROhpDmE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/85452-Homemade-Black-Bean-Veggie-Burger-ddmfs-103084-4x3-1-d017a13835c3449996c9e69fc0f74808.jpg"
@@ -3222,59 +3379,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85452/homemade-black-bean-veggie-burgers/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Homemade Black Bean Veggie Burgers</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 burgers"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 (16 ounce) can black beans, drained and rinsed\n\n\n½  green bell pepper, cut into 2 inch pieces\n\n\n½  onion, cut into wedges\n\n\n3 cloves garlic, peeled\n\n\n1  egg\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon cumin\n\n\n1 teaspoon Thai chili sauce or hot sauce\n\n\n½ cup bread crumbs"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 (16 ounce) can black beans, drained and rinsed\n\n\n½  green bell pepper, cut into 2 inch pieces\n\n\n½  onion, cut into wedges\n\n\n3 cloves garlic, peeled\n\n\n1  egg\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon cumin\n\n\n1 teaspoon Thai chili sauce or hot sauce\n\n\n½ cup bread crumbs'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These black bean burgers are healthy, hearty, and packed with nutritious veggies."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the black bean burger recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make homemade this black bean veggie burger recipe:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make these black bean veggie burgers at home:"},{"recipe_directions":"Yes. To bake the black bean veggie burgers, preheat the oven to 375 degrees F (190 degrees C). Place patties on a lightly greased baking sheet. Bake in the preheated oven for about 10 minutes on each side."},{"recipe_directions":"This black bean burger recipe pairs perfectly with any side dish you’d serve with traditional beef burgers. For delicious inspiration, try our collection of 15 Quick and Easy Side Dishes for Burgers. Here are a few of the tasty ideas you’ll find:"},{"recipe_directions":"Store your leftover cooked black bean burger patties in an airtight container in the refrigerator for up to four days."},{"recipe_directions":"Yes! These black bean veggie burgers freeze well. Flash freeze the patties on a baking sheet for a few hours or up to overnight. Transfer the now-frozen patties to a zip-top freezer bag or another freezer-safe storage container. Freeze for up to two months."},{"recipe_directions":"“This burger was amazing,” raves Sue Neyland. “We only eat meatless once a week, so we try things that we think will be satisfying and delicious. Well, this recipe is a winner.”"},{"recipe_directions":"“Had this on a brioche bun with mustard, ketchup, pickles and lettuce and it was great,” says Kevin Faulkner. “Going to try this as a meatball substitute for a bulgogi dish.”"},{"recipe_directions":"“This was the first time I’ve ever made veggie burgers and it was so good,” according to one Allrecipes community member. “The trick was to chop up the veggies and then squeeze out all the excess water from the pepper and onion in a paper towel before putting it into the mixture.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat an outdoor grill for high heat. Lightly oil a sheet of aluminum foil with cooking spray."},{"recipe_directions":"Mash black beans in a medium bowl with a fork until thick and pasty."},{"recipe_directions":"Finely chop bell pepper, onion, and garlic in a food processor. Stir chopped vegetables into mashed beans."},{"recipe_directions":"Stir together egg, chili powder, cumin, and chili sauce in a small bowl. Add to the mashed beans and stir to combine. Mix in bread crumbs until the mixture is sticky and holds together."},{"recipe_directions":"Divide the mixture into four patties and place on the prepared foil."},{"recipe_directions":"Grill on the preheated grill for about 8 minutes on each side."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Burger Recipes"},{"recipe_tags":"Veggie"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n3g \nFat\n\n\n33g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658704-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IczFGv70JdCafUpkg9lEQ5r7ToM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2286111-baked-honey-mustard-chicken-John-1x1-1-75d7c0f0506140eabc5855fe1b3bfa4c.jpg"
@@ -3288,59 +3441,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8847/baked-honey-mustard-chicken/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Baked Honey Mustard Chicken</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n6  skinless, boneless chicken breast halves\n\n\n  salt and pepper to taste\n\n\n½ cup honey\n\n\n½ cup prepared mustard\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon paprika\n\n\n½ teaspoon dried parsley"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6  skinless, boneless chicken breast halves\n\n\n  salt and pepper to taste\n\n\n½ cup honey\n\n\n½ cup prepared mustard\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon paprika\n\n\n½ teaspoon dried parsley'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a 9x13-inch baking dish with cooking spray."},{"recipe_directions":"Season chicken breasts with salt and pepper. Place in the prepared baking dish."},{"recipe_directions":"Combine honey, mustard, basil, paprika, and parsley in a small bowl; mix well. Pour 1/2 of the honey mustard mixture over chicken and brush to cover."},{"recipe_directions":"Bake in the preheated oven for 30 minutes. Turn chicken pieces over and brush with remaining honey mustard mixture. Continue baking until chicken is no longer pink and juices run clear, 10 to 15 minutes more. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Let cool 10 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Healthy Chicken"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n4g \nFat\n\n\n25g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658711-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kMhZokwY24RZiRjjgDXqzBSmwhI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/7540314-32ec91bb3d6a455daab010cd44cadc0f.jpg"
@@ -3353,59 +3502,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74749/fideo/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Fideo</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n1 (8 ounce) package fideo pasta\n\n\n1 ½ cups water, divided\n\n\n1 (8 ounce) can tomato sauce, divided\n\n\n1 tablespoon chili powder\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n1 (8 ounce) package fideo pasta\n\n\n1 ½ cups water, divided\n\n\n1 (8 ounce) can tomato sauce, divided\n\n\n1 tablespoon chili powder\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a saucepan over medium-high heat. Add fideo; cook and stir until browned."},{"recipe_directions":"Add 1 cup water and 1/2 of the tomato sauce to fideo. Season with chili powder, cumin, and garlic salt; stir to blend. Bring to a boil and cook until liquid has almost evaporated."},{"recipe_directions":"Stir in remaining 1/2 cup water and remaining tomato sauce. Cover and cook over medium heat until fideo is tender and sauce thickens, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n8g \nFat\n\n\n47g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658722-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ylCXzH-Xf2MeCoDN9eRV8hprFCo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/44975-easy-pizza-sauce-iii-DDMFS-4x3-1e60e47c2cec463687021af62133a8d9.jpg"
@@ -3419,59 +3564,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/44975/easy-pizza-sauce-iii/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Easy Pizza Sauce</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n24 \n\n\nYield:\n2 3/4 cups"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can tomato sauce\n\n\n1 (6 ounce) can tomato paste\n\n\n1 tablespoon ground oregano\n\n\n1 ½ teaspoons dried minced garlic\n\n\n1 teaspoon ground paprika"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can tomato sauce\n\n\n1 (6 ounce) can tomato paste\n\n\n1 tablespoon ground oregano\n\n\n1 ½ teaspoons dried minced garlic\n\n\n1 teaspoon ground paprika'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix together tomato sauce and tomato paste in a medium bowl until smooth."},{"recipe_directions":"Stir in oregano, garlic, and paprika to pizza sauce mixture."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"Pizza Sauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"11\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658730-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qgcDvCrfVsR0D6l6kcmrv4Ldu94=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1935x1616:1937x1618):format(webp)/34450-Italian-seasoning-ar-video-209-4x3-28dcec9333834a0bb829e3dab5315cdf.jpg"
@@ -3485,59 +3626,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34450/italian-seasoning-i/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Italian Seasoning</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n10 \n\n\nYield:\n10 tablespoons"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons dried basil\n\n\n2 tablespoons dried oregano\n\n\n2 tablespoons dried rosemary\n\n\n2 tablespoons dried marjoram\n\n\n2 tablespoons dried thyme\n\n\n2 tablespoons red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons dried basil\n\n\n2 tablespoons dried oregano\n\n\n2 tablespoons dried rosemary\n\n\n2 tablespoons dried marjoram\n\n\n2 tablespoons dried thyme\n\n\n2 tablespoons red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine basil, oregano, rosemary, marjoram, thyme, and red pepper flakes in a food processor."},{"recipe_directions":"Blend for 1 minute, or until desired consistency is achieved."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Ingredients"},{"recipe_tags":"Herbs and Spices Recipes"},{"recipe_tags":"Seasoning Mix Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"14\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658739-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j4USimeFnD5H2zTwVHsaGoNZqSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/18249-baked-sweet-potatoes-DDMFS-4x3-ca310a21c01141d3b906da464aa7e27f.jpg"
@@ -3551,59 +3688,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18249/baked-sweet-potatoes/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Baked Sweet Potatoes</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n3 large sweet potatoes\n\n\n2 pinches dried oregano or to taste\n\n\n2 pinches salt\n\n\n2 pinches ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n3 large sweet potatoes\n\n\n2 pinches dried oregano or to taste\n\n\n2 pinches salt\n\n\n2 pinches ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These baked sweet potato cubes will pair perfectly with all your favorite seasonal dinners."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These baked sweet potatoes are simply seasoned with dried oregano, salt, and pepper. Of course, you can flavor them however you like."},{"recipe_directions":"Here’s a brief overview of what you can expect when you bake sweet potatoes at home:"},{"recipe_directions":"In an oven preheated to 350 degrees F, three large cubed sweet potatoes should be perfectly baked and fork-tender in about 45 minutes."},{"recipe_directions":"You can wash, peel, and cube the sweet potatoes the day before you plan to serve the baked sweet potatoes to save time. Simply store the cubed sweet potatoes in an airtight container in the refrigerator."},{"recipe_directions":"You can store leftover baked sweet potato cubes in an airtight container in the refrigerator for up to five days."},{"recipe_directions":"“Absolutely delicious sweet potato recipe,” raves Bob Seale. “I roasted them on a prepared baking sheet and turned them over half way through to crisp them. Just before serving, I squeezed a few drops of fresh lemon juice over them.”"},{"recipe_directions":"“This was a hit,” according to Patti Copeland Talcott. ‘I made them to go with a pork loin roast and it was a great combination. Also very easy to make. Delicious.”"},{"recipe_directions":"“So easy to make,” says linda. “I didn't have oregano so I used Herbs de Provence. Will definitely make it again!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Coat the bottom of a glass or nonstick baking dish with olive oil, just enough to coat."},{"recipe_directions":"Wash and peel sweet potatoes; cut into medium pieces."},{"recipe_directions":"Place in the baking dish and stir to coat with olive oil. Sprinkle with oregano, salt, and pepper."},{"recipe_directions":"Bake in the preheated oven until soft and fork-tender, about 45 minutes to 1 hour."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Sweet Potatoes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"181\nCalories\n\n\n7g \nFat\n\n\n28g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658745-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e0JFXEEQQmbaOwEZWczAl9vCiGA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1009122-fa8d56db99f947488c72864c6f067d95.jpg"
@@ -3617,59 +3750,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/82768/lauras-quick-slow-cooker-turkey-chili/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Laura's Quick Slow Cooker Turkey Chili</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 15 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1 pound ground turkey\n\n\n  cooking spray\n\n\n2 (10.75 ounce) cans  low sodium tomato soup\n\n\n2 (15 ounce) cans kidney beans, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n½ medium onion, chopped\n\n\n2 tablespoons chili powder\n\n\n½ tablespoon garlic powder\n\n\n½ tablespoon ground cumin\n\n\n1 teaspoon red pepper flakes\n\n\n1 pinch ground black pepper\n\n\n1 pinch ground allspice\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 pound ground turkey\n\n\n  cooking spray\n\n\n2 (10.75 ounce) cans  low sodium tomato soup\n\n\n2 (15 ounce) cans kidney beans, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n½ medium onion, chopped\n\n\n2 tablespoons chili powder\n\n\n½ tablespoon garlic powder\n\n\n½ tablespoon ground cumin\n\n\n1 teaspoon red pepper flakes\n\n\n1 pinch ground black pepper\n\n\n1 pinch ground allspice\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium heat. Place turkey in the skillet, and cook until evenly brown; drain."},{"recipe_directions":"Coat the inside of a slow cooker with cooking spray, and mix in turkey, tomato soup, kidney beans, black beans, and onion. Season with chili powder, garlic powder, cumin, red pepper flakes, black pepper, allspice, and salt."},{"recipe_directions":"Cover, and cook on Low for 8 hours, or on High for 4 hours."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Turkey Chili Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"276\nCalories\n\n\n8g \nFat\n\n\n33g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658750-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vg8Pxl_t0FFhEHmOXAZxye1GHjs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/813105-7e3e8fcd1aaf49bab3900c02db1476f2.jpg"
@@ -3682,59 +3811,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21403/ham-and-beans/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Ham and Beans</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 10 hrs 15 mins\n\n\nServings:\n7"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound dry great Northern beans\n\n\n½ pound cooked ham, diced\n\n\n1 small onion, diced\n\n\n½ cup brown sugar\n\n\n1 tablespoon dried parsley\n\n\n¼ teaspoon cayenne pepper\n\n\n6 cups water, or as needed to cover\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound dry great Northern beans\n\n\n½ pound cooked ham, diced\n\n\n1 small onion, diced\n\n\n½ cup brown sugar\n\n\n1 tablespoon dried parsley\n\n\n¼ teaspoon cayenne pepper\n\n\n6 cups water, or as needed to cover\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse beans; transfer to a large stockpot. Cover with cold water and let stand overnight or at least 8 hours. Drain and rinse beans."},{"recipe_directions":"Return beans to stockpot; add ham, onion, sugar, parsley, and cayenne pepper. Pour in enough water to cover and season with salt and pepper. Bring to a boil; reduce heat to low and simmer until beans are tender, adding more water if needed, about 1 1/2 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"},{"recipe_tags":"Ham Soup"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"300\nCalories\n\n\n7g \nFat\n\n\n43g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658758-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AjJzML_vQtnKdWjXIV2RDx6cPDI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/687200_Fajita-Marinade-I_Photo-by-Rachelle-Shockey-c8d7262436524aedb6d8dfbccf0d41ad.jpg"
@@ -3748,59 +3873,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19963/fajita-marinade-i/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Fajita Marinade</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup water\n\n\n¼ cup lime juice\n\n\n2 tablespoons olive oil\n\n\n4 cloves garlic, crushed\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon salt\n\n\n½ teaspoon liquid smoke flavoring\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup water\n\n\n¼ cup lime juice\n\n\n2 tablespoons olive oil\n\n\n4 cloves garlic, crushed\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon salt\n\n\n½ teaspoon liquid smoke flavoring\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This fajita marinade recipe results in tender, flavorful, melt-in-your-mouth meat every time."},{"recipe_directions":"These are the simple, kitchen staple ingredients you’ll need to make this homemade fajita marinade ingredients:"},{"recipe_directions":"Simply whisk the ingredients together in a bowl. That’s it! You’ll find the full, step-by-step instructions (with marinating directions) in the recipe below."},{"recipe_directions":"You may be tempted to reuse the marinade straight from the bag, but it will not be safe to use as-is. In fact, the bacteria from the raw meat could make you very, very sick."},{"recipe_directions":"All that flavorful fajita marinade doesn't have to go to waste, though: You can make it safe-to-eat by boiling the liquid for several minutes. This process will also reduce the liquid, resulting in a thick sauce that'll work well with your homemade fajitas. ."},{"recipe_directions":"Learn more: How to Safely Reuse a Meat Marinade"},{"recipe_directions":"“This is an excellent marinade, particularly if you have the time to do it overnight,” according to John McArthur. “When I have less time I add about 50% more lime juice so the acid breaks down the muscle better.”"},{"recipe_directions":"“This recipe makes fajitas that are addictive,” raves one Allrecipes community member. “And I ought to know — I'm from Texas! I scaled this to 20 servings for a party and used half the marinade for top round steak and half for chicken breasts.”"},{"recipe_directions":"“I love Mexican food,” says Medora Jensen. “This recipe has resurrected two dishes for my family. Quesadillas and fajitas. I use cooked, left over chicken and shred it with the marinade. I cook some peppers, onions and garlic, add the shredded chicken and voila!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Whisk water, lime juice, olive oil, garlic, soy sauce, salt, and liquid smoke flavoring together in a bowl. Stir in cayenne and black pepper until combined."},{"recipe_directions":"Use to marinate 2 pounds of meat; marinate in the refrigerator for at least 2 hours to overnight before cooking as desired."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Marinade Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658765-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8d-zDop3KUaNe1wjlafKmX3DP7Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/324-SlowCooker-Chili-ddmfs-4x3-38483994-c501b089a5ce4680a397707bbf339f2f.jpg"
@@ -3814,59 +3935,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48449/slow-cooker-chili-ii/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Slow Cooker Chili</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 8 hrs 25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n¾ cup diced onion\n\n\n¾ cup diced celery\n\n\n¾ cup diced green bell pepper\n\n\n2 cloves garlic, minced\n\n\n2 (10.75 ounce) cans  tomato puree\n\n\n1 (15 ounce) can kidney beans with liquid\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n1 (15 ounce) can cannellini beans with liquid\n\n\n½ tablespoon chili powder\n\n\n1 teaspoon salt\n\n\n¾ teaspoon dried basil\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon hot pepper sauce"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n¾ cup diced onion\n\n\n¾ cup diced celery\n\n\n¾ cup diced green bell pepper\n\n\n2 cloves garlic, minced\n\n\n2 (10.75 ounce) cans  tomato puree\n\n\n1 (15 ounce) can kidney beans with liquid\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n1 (15 ounce) can cannellini beans with liquid\n\n\n½ tablespoon chili powder\n\n\n1 teaspoon salt\n\n\n¾ teaspoon dried basil\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon hot pepper sauce'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beef in a skillet over medium heat and cook until evenly brown, 8 to 10 minutes. Drain grease."},{"recipe_directions":"Transfer beef to a slow cooker and mix in onion, celery, bell pepper, garlic, tomato puree, kidney beans, and cannellini beans. Season with chili powder, salt, basil, oregano, parsley, black pepper, and hot pepper sauce."},{"recipe_directions":"Cover and cook on Low for 8 hours."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Beef Chili Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"273\nCalories\n\n\n8g \nFat\n\n\n33g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658773-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XtBMX966c7qFqzGIAhW7BI4vYEc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/image-6-9532607d48a248b48ddc4a3588ae1b9c.jpg"
@@ -3880,59 +3997,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/46982/pesto-pasta-with-chicken/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Pesto Pasta with Chicken</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package bow tie pasta\n\n\n1 teaspoon olive oil\n\n\n2 cloves garlic, minced\n\n\n2  skinless, boneless chicken breasts, cut into bite-sized pieces\n\n\n1 pinch crushed red pepper flakes, or to taste\n\n\n½ cup pesto sauce\n\n\n⅓ cup oil-packed sun-dried tomatoes, drained and cut into strips"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package bow tie pasta\n\n\n1 teaspoon olive oil\n\n\n2 cloves garlic, minced\n\n\n2  skinless, boneless chicken breasts, cut into bite-sized pieces\n\n\n1 pinch crushed red pepper flakes, or to taste\n\n\n½ cup pesto sauce\n\n\n⅓ cup oil-packed sun-dried tomatoes, drained and cut into strips'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta and cook until al dente, 8 to 10 minutes; drain."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Sauté garlic until tender, then stir in chicken and season with red pepper flakes. Cook until chicken is golden and cooked through."},{"recipe_directions":"Combine pasta, chicken, pesto, and sun-dried tomatoes in a large bowl; toss to coat evenly."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"},{"recipe_tags":"Pesto Chicken Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"328\nCalories\n\n\n10g \nFat\n\n\n43g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658778-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CVj_oSwxy10jO8JsswbS6i97FFg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/70163-easy-baked-tilapia-DDMFS-4x3-6c1e91e8290d45cca4f67dc76c18afee.jpg"
@@ -3946,59 +4059,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70163/easy-baked-tilapia/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Easy Baked Tilapia</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 (4 ounce) fillets tilapia\n\n\n2 teaspoons butter\n\n\n½ teaspoon garlic salt, or to taste\n\n\n¼ teaspoon seafood seasoning (such as Old Bay®), or to taste\n\n\n1  lemon, sliced\n\n\n1 (16 ounce) package frozen cauliflower with broccoli and red pepper\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 (4 ounce) fillets tilapia\n\n\n2 teaspoons butter\n\n\n½ teaspoon garlic salt, or to taste\n\n\n¼ teaspoon seafood seasoning (such as Old Bay®), or to taste\n\n\n1  lemon, sliced\n\n\n1 (16 ounce) package frozen cauliflower with broccoli and red pepper\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees F). Grease a 9x13-inch baking dish."},{"recipe_directions":"Place tilapia fillets in the bottom of the baking dish, then dot with butter and season with garlic salt and seafood seasoning."},{"recipe_directions":"Top each fillet with a slice or two of lemon."},{"recipe_directions":"Arrange frozen mixed vegetables around fillets and season lightly with salt and pepper. Cover the dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until vegetables are tender and fish flakes easily with a fork, 25 to 30 minutes."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tilapia"},{"recipe_tags":"Baked"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"172\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658783-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Se9Bla84qjdP_0KEXYvmOTHtzbM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7096210-slow-cooker-venison-roast-Bill-Yandow-1x1-1-2712df1bd11b452098add97bd0be2728.jpg"
@@ -4012,59 +4121,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23825/slow-cooker-venison-roast/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Slow Cooker Venison Roast</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds boneless venison roast\n\n\n1 large onion, sliced\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon garlic salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 (1 ounce) package dry onion soup mix\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds boneless venison roast\n\n\n1 large onion, sliced\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon garlic salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 (1 ounce) package dry onion soup mix\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Clean venison roast and place in a slow cooker. Cover with onion slices, then sprinkle with soy sauce, Worcestershire sauce, garlic salt, and pepper."},{"recipe_directions":"Stir onion soup mix and condensed soup together in a small bowl. Pour mixture over venison."},{"recipe_directions":"Cover and cook on Low setting for 6 hours."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Game Meats"},{"recipe_tags":"Venison"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"314\nCalories\n\n\n8g \nFat\n\n\n10g \nCarbs\n\n\n48g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658788-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15587/healthy-recipes/low-glycemic-impact/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t9WOebXsHpwfN5H5-WwB2pMxRaQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/5031552-9db50e506e4c4eaebca7b833dfcc7558.jpg"
@@ -4077,42 +4182,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38214/creole-seasoning-blend/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Creole Seasoning Blend</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n20 \n\n\nYield:\n1 1/4 cups"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 tablespoons paprika\n\n\n3 tablespoons salt\n\n\n2 tablespoons onion powder\n\n\n2 tablespoons garlic powder\n\n\n2 tablespoons dried oregano\n\n\n2 tablespoons dried basil\n\n\n1 tablespoon dried thyme\n\n\n1 tablespoon black pepper\n\n\n1 tablespoon white pepper\n\n\n1 tablespoon cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 tablespoons paprika\n\n\n3 tablespoons salt\n\n\n2 tablespoons onion powder\n\n\n2 tablespoons garlic powder\n\n\n2 tablespoons dried oregano\n\n\n2 tablespoons dried basil\n\n\n1 tablespoon dried thyme\n\n\n1 tablespoon black pepper\n\n\n1 tablespoon white pepper\n\n\n1 tablespoon cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine paprika, salt, onion powder, garlic powder, oregano, basil, thyme, black pepper, white pepper, and cayenne pepper."},{"recipe_directions":"Store in an airtight container."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Ingredients"},{"recipe_tags":"Herbs and Spices Recipes"},{"recipe_tags":"Seasoning Mix Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"16\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>